--- a/BP_Budget Previsionnel/BF_Budget Financier/Budget financier_V2.0.xlsx
+++ b/BP_Budget Previsionnel/BF_Budget Financier/Budget financier_V2.0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69245DC5-E019-4BAD-BCE2-06A0D616E34C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139DCE79-18B4-447A-8C34-1C6237650862}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Budget Financier</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Divers</t>
+  </si>
+  <si>
+    <t>Devis en cours</t>
   </si>
 </sst>
 </file>
@@ -173,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -190,6 +193,10 @@
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1077,7 +1084,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2B626138-7CD5-4994-B9A7-9755A55C71AD}" type="CELLRANGE">
+                    <a:fld id="{A7648F7E-633E-42F5-9CA1-0DC52E5CC35D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1110,7 +1117,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C93B2350-D903-4974-A4D6-E5BF06874BD7}" type="CELLRANGE">
+                    <a:fld id="{836C8FE3-C627-48C1-89AC-9F7AB92F8D56}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1144,7 +1151,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AA5C38B9-E504-4E5A-BABB-425121C4740B}" type="CELLRANGE">
+                    <a:fld id="{79571214-C453-43C9-B88A-58A7C79F961F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1178,7 +1185,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EC35A65B-A9E7-49A3-91C9-0AF26FD23A2F}" type="CELLRANGE">
+                    <a:fld id="{AD4BB2CF-D0E8-4B58-90EF-00DA96FF543A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1212,7 +1219,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FC0DBB72-0FB3-4A4C-B8D2-F057EB513B72}" type="CELLRANGE">
+                    <a:fld id="{98E43EE9-1340-4FEB-B48D-9916E2E5ABCA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1246,7 +1253,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{10B80039-65FC-41D3-96AD-EEAA699E828A}" type="CELLRANGE">
+                    <a:fld id="{D7F45942-F68F-4D81-91B3-2C51D5607A40}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1651,7 +1658,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1A81CBAD-F6C3-461C-8EED-2382826934D9}" type="CELLRANGE">
+                    <a:fld id="{5AC10F6B-2DBE-4CD4-BC26-2E03DB7990D1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1684,7 +1691,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{831E073D-F80A-493C-9397-4EE43BA62AFC}" type="CELLRANGE">
+                    <a:fld id="{8DD0DDC3-BCD4-4190-881C-24A109C6C1DC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1718,7 +1725,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{46B4F46F-37BE-48E8-9E2D-807181E24040}" type="CELLRANGE">
+                    <a:fld id="{73895F95-61C0-4FD4-A000-8F08857E21BB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1752,7 +1759,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{76FC4718-0009-418B-B89F-195FF5857BC1}" type="CELLRANGE">
+                    <a:fld id="{61E4EFBC-4547-4BB7-AB30-79776E0E4BFC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1786,7 +1793,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DE5069D0-0434-4F94-A9D4-C205860D74FD}" type="CELLRANGE">
+                    <a:fld id="{6921BCD8-FC60-4A31-B136-B4E15D4095BF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -2204,7 +2211,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F494706C-B43B-433A-A616-8E87F3F03EA1}" type="CELLRANGE">
+                    <a:fld id="{6D276C95-D286-42D8-8CF2-176DE5AEE532}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -2237,7 +2244,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1C2AB7B3-2223-4C40-B698-2920D1F98DD4}" type="CELLRANGE">
+                    <a:fld id="{D5F6D2C4-60FC-4951-97AB-A4F9BE9400C2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -2271,7 +2278,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{428922AA-9DFF-40CA-95D3-BC6160FF2F35}" type="CELLRANGE">
+                    <a:fld id="{F25B73C0-3A49-49E1-B97E-FC9546FF7843}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -2305,7 +2312,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7031BDF6-DAF8-496B-8920-B0E6FC0FAEE3}" type="CELLRANGE">
+                    <a:fld id="{8044F289-3E02-4430-8B74-019E998F3E47}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -2339,7 +2346,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{731AF63E-7F1B-4E9A-B04D-CD3CB42934A2}" type="CELLRANGE">
+                    <a:fld id="{84FF48D2-EBFD-4690-BD5E-73322BE772DC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -2373,7 +2380,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E174AB67-7D8D-4C88-BCBB-59B75A3F4E71}" type="CELLRANGE">
+                    <a:fld id="{B4B7804D-7BC2-4080-A266-E4236D571EB2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -5571,14 +5578,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5593,8 +5600,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7863840" y="182880"/>
-          <a:ext cx="4853940" cy="2933700"/>
+          <a:off x="7863840" y="914400"/>
+          <a:ext cx="4853940" cy="2743200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5630,7 +5637,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="1100" b="1"/>
-            <a:t>Budget disponoble :</a:t>
+            <a:t>Budget disponible :</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5646,9 +5653,6 @@
             <a:t> on recoit 35k€ pour 2020 et que l'on utlisie les 1200€ de PE, on arrive à 46600€</a:t>
           </a:r>
           <a:endParaRPr lang="fr-FR" sz="1100" b="0"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1100" b="1"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="fr-FR" sz="1100" b="1"/>
@@ -5693,7 +5697,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
-            <a:t>- Faire fabriquer de l'aéro coûte XXXX€</a:t>
+            <a:t>- Faire fabriquer de l'aéro coûte 10k€</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5981,10 +5985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V31" sqref="V31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5994,7 +5998,7 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -6003,10 +6007,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -6025,8 +6029,13 @@
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="L3" s="14"/>
+      <c r="M3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="15"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
@@ -6044,7 +6053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -6066,7 +6075,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
@@ -6088,7 +6097,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -6098,7 +6107,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
@@ -6120,7 +6129,7 @@
         <v>19500</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -6135,10 +6144,14 @@
       <c r="G10" s="1">
         <v>700</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="H10" s="11">
+        <v>2000</v>
+      </c>
+      <c r="I10" s="11">
+        <v>2000</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -6148,7 +6161,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
@@ -6170,7 +6183,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -6180,7 +6193,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
@@ -6202,7 +6215,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>10</v>
       </c>
@@ -6214,7 +6227,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -6294,8 +6307,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/BP_Budget Previsionnel/BF_Budget Financier/Budget financier_V2.0.xlsx
+++ b/BP_Budget Previsionnel/BF_Budget Financier/Budget financier_V2.0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139DCE79-18B4-447A-8C34-1C6237650862}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53FA99A-DEB8-43AA-AC7D-25D3751AE0FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>Budget Financier</t>
   </si>
@@ -87,6 +87,63 @@
   <si>
     <t>Devis en cours</t>
   </si>
+  <si>
+    <t>LAS</t>
+  </si>
+  <si>
+    <t>SEISM</t>
+  </si>
+  <si>
+    <t>Achat de 1 jeu de ressort</t>
+  </si>
+  <si>
+    <t>Ressources réutilisables</t>
+  </si>
+  <si>
+    <t>Gain</t>
+  </si>
+  <si>
+    <t>Les tubes carrés</t>
+  </si>
+  <si>
+    <t>Essai en traction</t>
+  </si>
+  <si>
+    <t>Prix</t>
+  </si>
+  <si>
+    <t>DTA</t>
+  </si>
+  <si>
+    <t>RaceCapture</t>
+  </si>
+  <si>
+    <t>Palette</t>
+  </si>
+  <si>
+    <t>Camping</t>
+  </si>
+  <si>
+    <t>Capteur de tempé pneu</t>
+  </si>
+  <si>
+    <t>Roulement</t>
+  </si>
+  <si>
+    <t>Simplifier le kit</t>
+  </si>
+  <si>
+    <t>Trouver un partenaire</t>
+  </si>
+  <si>
+    <t>Déplacer sur un autre budget</t>
+  </si>
+  <si>
+    <t>Multiprise et Webcam</t>
+  </si>
+  <si>
+    <t>Soudure alu</t>
+  </si>
 </sst>
 </file>
 
@@ -95,7 +152,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +172,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -176,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -192,12 +257,18 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -236,6 +307,40 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Optimus</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="0"/>
+              <a:t>51 780€</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -341,7 +446,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -782,16 +887,16 @@
                 <c:formatCode>#\ ##0\ "€"</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1900</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17500</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14000</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4500</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>10000</c:v>
@@ -1084,7 +1189,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A7648F7E-633E-42F5-9CA1-0DC52E5CC35D}" type="CELLRANGE">
+                    <a:fld id="{939FBB09-49F7-46C5-ACB7-12E433D614A9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1117,7 +1222,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{836C8FE3-C627-48C1-89AC-9F7AB92F8D56}" type="CELLRANGE">
+                    <a:fld id="{56534222-87DD-40AC-9CA9-19993656A3D5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1151,7 +1256,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{79571214-C453-43C9-B88A-58A7C79F961F}" type="CELLRANGE">
+                    <a:fld id="{16DC9A4D-22A7-4E41-B23D-A892EA08430A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1185,7 +1290,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AD4BB2CF-D0E8-4B58-90EF-00DA96FF543A}" type="CELLRANGE">
+                    <a:fld id="{DF79440A-55FB-4BDB-A840-C092162C29F6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1219,7 +1324,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{98E43EE9-1340-4FEB-B48D-9916E2E5ABCA}" type="CELLRANGE">
+                    <a:fld id="{7CFC9B14-E76D-48D0-9E1D-073978B3310F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1253,7 +1358,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D7F45942-F68F-4D81-91B3-2C51D5607A40}" type="CELLRANGE">
+                    <a:fld id="{61FAD6D1-CB58-44A7-A69F-2E78160F0D3A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1346,19 +1451,19 @@
                 <c:formatCode>#\ ##0\ "€"</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1900</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17500</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14000</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4500</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10000</c:v>
@@ -1373,19 +1478,19 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>1 900 €</c:v>
+                    <c:v>1 700 €</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3 000 €</c:v>
+                    <c:v>2 000 €</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>17 500 €</c:v>
+                    <c:v>16 000 €</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>14 000 €</c:v>
+                    <c:v>12 000 €</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>4 500 €</c:v>
+                    <c:v>3 500 €</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>10 000 €</c:v>
@@ -1506,6 +1611,15 @@
             <a:r>
               <a:rPr lang="fr-FR" b="0" baseline="0"/>
               <a:t>10'' sans aéro</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" b="0" baseline="0"/>
+              <a:t>45 200€</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1658,7 +1772,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5AC10F6B-2DBE-4CD4-BC26-2E03DB7990D1}" type="CELLRANGE">
+                    <a:fld id="{0991C41B-EBF5-43C2-8A0F-6974E5D306BF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1691,7 +1805,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8DD0DDC3-BCD4-4190-881C-24A109C6C1DC}" type="CELLRANGE">
+                    <a:fld id="{83B09C44-D47B-4809-BF72-8622D282E90E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1725,7 +1839,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{73895F95-61C0-4FD4-A000-8F08857E21BB}" type="CELLRANGE">
+                    <a:fld id="{7FDED453-9686-4CD8-A92A-C396B2E9B18A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1759,7 +1873,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{61E4EFBC-4547-4BB7-AB30-79776E0E4BFC}" type="CELLRANGE">
+                    <a:fld id="{6FDA2617-2238-40C1-851B-E266A131D8A2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1793,7 +1907,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6921BCD8-FC60-4A31-B136-B4E15D4095BF}" type="CELLRANGE">
+                    <a:fld id="{A61921C6-B638-41D4-9232-1F410131D24A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1886,16 +2000,16 @@
                 <c:formatCode>#\ ##0\ "€"</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1900</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19500</c:v>
+                  <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14000</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4500</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>10000</c:v>
@@ -1910,16 +2024,16 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>1 900 €</c:v>
+                    <c:v>1 700 €</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>19 500 €</c:v>
+                    <c:v>18 000 €</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>14 000 €</c:v>
+                    <c:v>12 000 €</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4 500 €</c:v>
+                    <c:v>3 500 €</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>10 000 €</c:v>
@@ -2039,6 +2153,15 @@
             <a:r>
               <a:rPr lang="fr-FR" b="0" baseline="0"/>
               <a:t>10'' avec aéro</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" b="0" baseline="0"/>
+              <a:t>47 200€</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2211,7 +2334,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6D276C95-D286-42D8-8CF2-176DE5AEE532}" type="CELLRANGE">
+                    <a:fld id="{5E8707EA-CE84-4CB9-BB29-5E72C8C2BDA9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -2244,7 +2367,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D5F6D2C4-60FC-4951-97AB-A4F9BE9400C2}" type="CELLRANGE">
+                    <a:fld id="{D15B9CE7-D8C8-4FD7-87F9-62D62F14EAE8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -2278,7 +2401,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F25B73C0-3A49-49E1-B97E-FC9546FF7843}" type="CELLRANGE">
+                    <a:fld id="{3A6F716F-A70B-4185-9C79-DBE2CCA61843}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -2312,7 +2435,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8044F289-3E02-4430-8B74-019E998F3E47}" type="CELLRANGE">
+                    <a:fld id="{2C708971-EA2C-478A-A0B4-AE898BD54B2B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -2346,7 +2469,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{84FF48D2-EBFD-4690-BD5E-73322BE772DC}" type="CELLRANGE">
+                    <a:fld id="{B18A77E1-6A9B-4C77-B759-684B43058FBB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -2380,7 +2503,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B4B7804D-7BC2-4080-A266-E4236D571EB2}" type="CELLRANGE">
+                    <a:fld id="{87871743-CA3D-40A4-88CF-7EA0DA5DD990}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -2473,19 +2596,19 @@
                 <c:formatCode>#\ ##0\ "€"</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1900</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19500</c:v>
+                  <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14000</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4500</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10000</c:v>
@@ -2500,19 +2623,19 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>1 900 €</c:v>
+                    <c:v>1 700 €</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3 000 €</c:v>
+                    <c:v>2 000 €</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>19 500 €</c:v>
+                    <c:v>18 000 €</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>14 000 €</c:v>
+                    <c:v>12 000 €</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>4 500 €</c:v>
+                    <c:v>3 500 €</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>10 000 €</c:v>
@@ -2522,6 +2645,958 @@
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-3C27-42FF-9B88-C41CC6AC57AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Invictus</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> : </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" b="0" baseline="0"/>
+              <a:t>13'' sans aéro</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" b="0" baseline="0"/>
+              <a:t>43 200€</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Invictus</c:v>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9459-4D03-8B57-C440242C5849}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9459-4D03-8B57-C440242C5849}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-9459-4D03-8B57-C440242C5849}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-9459-4D03-8B57-C440242C5849}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-5806-4091-96F9-F9429476B603}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>(Feuil1!$F$6,Feuil1!$F$9,Feuil1!$F$12,Feuil1!$F$14,Feuil1!$F$18)</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0\ "€"</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-9459-4D03-8B57-C440242C5849}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Invictus</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> : </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" b="0" baseline="0"/>
+              <a:t>13'' avec aéro</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" b="0" baseline="0"/>
+              <a:t>45 200€</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Invictus</c:v>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A639-4A83-9717-1A96DBBD6EE9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A639-4A83-9717-1A96DBBD6EE9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-A639-4A83-9717-1A96DBBD6EE9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-A639-4A83-9717-1A96DBBD6EE9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-A639-4A83-9717-1A96DBBD6EE9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-E219-46BD-8E45-8F7DA00527A6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F0879841-FB48-4B29-9ED6-5FAEEB7B3C5D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[PLAGECELL]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="fr-FR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-A639-4A83-9717-1A96DBBD6EE9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E215EE6B-F9EA-4862-8D68-57A259B42A85}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[PLAGECELL]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="fr-FR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-A639-4A83-9717-1A96DBBD6EE9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5AA59194-F908-43C4-A222-F428DECE06D2}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[PLAGECELL]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="fr-FR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-A639-4A83-9717-1A96DBBD6EE9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4F75E531-A792-4D57-9DE1-3854BCC6F716}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[PLAGECELL]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="fr-FR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-A639-4A83-9717-1A96DBBD6EE9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B48CFEC9-CFD9-4795-BAC2-28ED900EA5D3}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[PLAGECELL]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="fr-FR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-A639-4A83-9717-1A96DBBD6EE9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1D0326FF-0B3F-4D39-8D33-C1115AD77C04}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[PLAGECELL]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="fr-FR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-E219-46BD-8E45-8F7DA00527A6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showDataLabelsRange val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>(Feuil1!$G$6,Feuil1!$G$7,Feuil1!$G$9,Feuil1!$G$12,Feuil1!$G$14,Feuil1!$G$18)</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0\ "€"</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>(Feuil1!$G$6,Feuil1!$G$7,Feuil1!$G$9,Feuil1!$G$12,Feuil1!$G$14,Feuil1!$G$18)</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>1 700 €</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2 000 €</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16 000 €</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>12 000 €</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3 500 €</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10 000 €</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-A639-4A83-9717-1A96DBBD6EE9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2789,6 +3864,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -4866,6 +6021,1044 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5390,14 +7583,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5426,14 +7619,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5464,14 +7657,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5502,14 +7695,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5540,14 +7733,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5717,6 +7910,82 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Graphique 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76D46134-A73B-4D8A-B622-C2DF19957538}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Graphique 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D86DB1F-D4A5-4B57-B625-095B29600A41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5985,10 +8254,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:X44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5996,21 +8265,23 @@
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="14"/>
       <c r="C1" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -6029,13 +8300,13 @@
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="14"/>
+      <c r="L3" s="13"/>
       <c r="M3" s="15" t="s">
         <v>19</v>
       </c>
       <c r="N3" s="15"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
@@ -6052,8 +8323,17 @@
       <c r="I4" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="V4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="W4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -6063,19 +8343,24 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="G6" s="1">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="H6" s="1">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="I6" s="1">
-        <v>1900</v>
-      </c>
+        <v>1700</v>
+      </c>
+      <c r="V6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="W6" s="16"/>
+      <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
@@ -6088,16 +8373,25 @@
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>3000</v>
+        <v>2000</v>
+      </c>
+      <c r="V7" t="s">
+        <v>25</v>
+      </c>
+      <c r="W7" s="1">
+        <v>500</v>
+      </c>
+      <c r="X7" s="1">
+        <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -6106,8 +8400,10 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
@@ -6117,19 +8413,24 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1">
-        <v>17500</v>
+        <v>16000</v>
       </c>
       <c r="G9" s="1">
-        <v>17500</v>
+        <v>16000</v>
       </c>
       <c r="H9" s="1">
-        <v>19500</v>
+        <v>18000</v>
       </c>
       <c r="I9" s="1">
-        <v>19500</v>
-      </c>
+        <v>18000</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -6150,8 +8451,17 @@
       <c r="I10" s="11">
         <v>2000</v>
       </c>
+      <c r="V10" t="s">
+        <v>36</v>
+      </c>
+      <c r="W10" s="19">
+        <v>10000</v>
+      </c>
+      <c r="X10" s="1">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -6160,8 +8470,15 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
+      <c r="V11" t="s">
+        <v>34</v>
+      </c>
+      <c r="W11" s="19"/>
+      <c r="X11" s="1">
+        <v>2000</v>
+      </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
@@ -6171,19 +8488,26 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="G12" s="1">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="H12" s="1">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="I12" s="1">
-        <v>14000</v>
+        <v>12000</v>
+      </c>
+      <c r="V12" t="s">
+        <v>35</v>
+      </c>
+      <c r="W12" s="19"/>
+      <c r="X12" s="1">
+        <v>3000</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -6193,7 +8517,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
@@ -6203,19 +8527,24 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="G14" s="1">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="H14" s="1">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="I14" s="1">
-        <v>4500</v>
-      </c>
+        <v>3500</v>
+      </c>
+      <c r="V14" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="W14" s="17"/>
+      <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>10</v>
       </c>
@@ -6226,8 +8555,15 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
+      <c r="V15" t="s">
+        <v>22</v>
+      </c>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1">
+        <v>136</v>
+      </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -6240,8 +8576,17 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
+      <c r="V16" t="s">
+        <v>33</v>
+      </c>
+      <c r="W16" s="1">
+        <v>1200</v>
+      </c>
+      <c r="X16" s="1">
+        <v>1200</v>
+      </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -6249,8 +8594,17 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
+      <c r="V17" t="s">
+        <v>26</v>
+      </c>
+      <c r="W17" s="1">
+        <v>400</v>
+      </c>
+      <c r="X17" s="1">
+        <v>200</v>
+      </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>18</v>
       </c>
@@ -6272,7 +8626,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -6280,36 +8634,183 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
+      <c r="V19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W19" s="18"/>
+      <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="1">
+        <f>$X32</f>
+        <v>14336</v>
+      </c>
+      <c r="G20" s="1">
+        <f>$X32</f>
+        <v>14336</v>
+      </c>
+      <c r="H20" s="1">
+        <f>$X32</f>
+        <v>14336</v>
+      </c>
+      <c r="I20" s="1">
+        <f>$X32</f>
+        <v>14336</v>
+      </c>
+      <c r="V20" t="s">
+        <v>28</v>
+      </c>
+      <c r="W20" s="1">
+        <v>1347</v>
+      </c>
+      <c r="X20" s="1">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="V21" t="s">
+        <v>38</v>
+      </c>
+      <c r="W21" s="1">
+        <v>1056</v>
+      </c>
+      <c r="X21" s="1">
+        <f>2000-X20</f>
+        <v>653</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C22" s="1">
         <f>C14+C12+C9+C6+C7+C18</f>
         <v>51780</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F22" s="1">
         <f>F14+F12+F9+F6+F7+F18</f>
-        <v>47900</v>
-      </c>
-      <c r="G20" s="1">
-        <f t="shared" ref="G20:I20" si="0">G14+G12+G9+G6+G7+G18</f>
-        <v>50900</v>
-      </c>
-      <c r="H20" s="1">
-        <f t="shared" si="0"/>
-        <v>49900</v>
-      </c>
-      <c r="I20" s="1">
-        <f t="shared" si="0"/>
-        <v>52900</v>
-      </c>
+        <v>43200</v>
+      </c>
+      <c r="G22" s="1">
+        <f>G14+G12+G9+G6+G7+G18</f>
+        <v>45200</v>
+      </c>
+      <c r="H22" s="1">
+        <f>H14+H12+H9+H6+H7+H18</f>
+        <v>45200</v>
+      </c>
+      <c r="I22" s="1">
+        <f>I14+I12+I9+I6+I7+I18</f>
+        <v>47200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="V23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W23" s="18"/>
+      <c r="X23" s="1"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="V24" t="s">
+        <v>29</v>
+      </c>
+      <c r="W24" s="1">
+        <v>700</v>
+      </c>
+      <c r="X24" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="V25" t="s">
+        <v>30</v>
+      </c>
+      <c r="W25" s="1">
+        <v>700</v>
+      </c>
+      <c r="X25" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="V26" t="s">
+        <v>32</v>
+      </c>
+      <c r="W26" s="1">
+        <v>300</v>
+      </c>
+      <c r="X26" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="V28" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="V29" t="s">
+        <v>31</v>
+      </c>
+      <c r="W29" s="1">
+        <v>1100</v>
+      </c>
+      <c r="X29" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="V30" t="s">
+        <v>37</v>
+      </c>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="V32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="W32" s="1">
+        <f>SUM(W7:W30)</f>
+        <v>17303</v>
+      </c>
+      <c r="X32" s="1">
+        <f>SUM(X7:X30)</f>
+        <v>14336</v>
+      </c>
+    </row>
+    <row r="38" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+    </row>
+    <row r="39" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+    </row>
+    <row r="40" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+    </row>
+    <row r="41" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+    </row>
+    <row r="43" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+    </row>
+    <row r="44" spans="23:24" x14ac:dyDescent="0.3">
+      <c r="W44" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="M3:N3"/>
+    <mergeCell ref="W10:W12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/BP_Budget Previsionnel/BF_Budget Financier/Budget financier_V2.0.xlsx
+++ b/BP_Budget Previsionnel/BF_Budget Financier/Budget financier_V2.0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53FA99A-DEB8-43AA-AC7D-25D3751AE0FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98FE425-A18E-414F-A4DE-9D27B63A9CF0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>Budget Financier</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>Ergonomie</t>
-  </si>
-  <si>
-    <t>SEISM et</t>
   </si>
   <si>
     <t>dont jantes</t>
@@ -258,15 +255,15 @@
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -540,6 +537,29 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Feuil1!$A$6,Feuil1!$A$9,Feuil1!$A$12,Feuil1!$A$14,Feuil1!$A$18)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Chassis</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Liaison au sol</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Motorisation</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SEISM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Divers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>(Feuil1!$C$6,Feuil1!$C$9,Feuil1!$C$12,Feuil1!$C$14,Feuil1!$C$18)</c:f>
@@ -589,6 +609,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1189,7 +1240,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{939FBB09-49F7-46C5-ACB7-12E433D614A9}" type="CELLRANGE">
+                    <a:fld id="{99F0531C-5D04-4402-BC58-B340E51E8F8A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1222,8 +1273,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{56534222-87DD-40AC-9CA9-19993656A3D5}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{0D6E99EA-9158-4D51-AFE9-77E956A493CB}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -1256,8 +1307,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{16DC9A4D-22A7-4E41-B23D-A892EA08430A}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{1C519D0E-C602-4BA7-A311-40EF00C18662}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -1290,8 +1341,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DF79440A-55FB-4BDB-A840-C092162C29F6}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{68955740-F76E-41B6-8E90-C46CD1F5D6E2}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -1324,8 +1375,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7CFC9B14-E76D-48D0-9E1D-073978B3310F}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{628A5682-BF23-437F-B488-C8DA10D0A08D}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -1358,8 +1409,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{61FAD6D1-CB58-44A7-A69F-2E78160F0D3A}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{CFE26667-63AE-4BDF-B798-B450FE225360}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -1772,7 +1823,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0991C41B-EBF5-43C2-8A0F-6974E5D306BF}" type="CELLRANGE">
+                    <a:fld id="{E675867E-6D7E-4EF8-8AE5-BD1732CE6DF5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1805,8 +1856,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{83B09C44-D47B-4809-BF72-8622D282E90E}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{46D75E52-D1BB-46EE-B4D5-EE6AD4D4CDF4}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -1839,8 +1890,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7FDED453-9686-4CD8-A92A-C396B2E9B18A}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{F296220C-9B27-4840-859D-5B6341E16877}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -1873,8 +1924,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6FDA2617-2238-40C1-851B-E266A131D8A2}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{B74F9D2E-50EB-41E0-A91B-DDD869CCA638}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -1907,8 +1958,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A61921C6-B638-41D4-9232-1F410131D24A}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{49E5FCB1-B3C4-476E-924A-EF70FC88A91C}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -2334,7 +2385,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5E8707EA-CE84-4CB9-BB29-5E72C8C2BDA9}" type="CELLRANGE">
+                    <a:fld id="{7241A5EB-ED5E-46F0-B22D-712F6FFCF8D1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -2367,8 +2418,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D15B9CE7-D8C8-4FD7-87F9-62D62F14EAE8}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{74D314AB-B5C7-4618-9E25-4CE99499EA72}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -2401,8 +2452,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3A6F716F-A70B-4185-9C79-DBE2CCA61843}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{C5EFB144-CE7A-457E-BFE7-6C9DFD4CF28F}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -2435,8 +2486,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2C708971-EA2C-478A-A0B4-AE898BD54B2B}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{537827B6-4EA6-4D28-AE3A-02FAF37A8E78}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -2469,8 +2520,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B18A77E1-6A9B-4C77-B759-684B43058FBB}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{AA206B68-7F78-4A1E-8F06-03E201DD23E0}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -2503,8 +2554,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{87871743-CA3D-40A4-88CF-7EA0DA5DD990}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{0951B987-E946-46A6-9DB8-A04D213A4442}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -3286,7 +3337,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F0879841-FB48-4B29-9ED6-5FAEEB7B3C5D}" type="CELLRANGE">
+                    <a:fld id="{6CE8470B-B626-4B2F-9B5B-44A15EAD4729}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -3319,8 +3370,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E215EE6B-F9EA-4862-8D68-57A259B42A85}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{1222D49E-9B4C-4EB9-BA2E-06987F14E37F}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -3353,8 +3404,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5AA59194-F908-43C4-A222-F428DECE06D2}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{E073232B-A2AC-4DC7-8734-504C9B553D91}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -3387,8 +3438,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4F75E531-A792-4D57-9DE1-3854BCC6F716}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{03FB18AB-2874-4DDF-96BA-BB353D5E2A25}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -3421,8 +3472,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B48CFEC9-CFD9-4795-BAC2-28ED900EA5D3}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{DFD8C737-992C-4F28-BAEF-09BA402CB655}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -3455,8 +3506,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1D0326FF-0B3F-4D39-8D33-C1115AD77C04}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{9224ADA5-7311-46A4-AEC5-222CAE1A00EF}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -7777,8 +7828,8 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7794,7 +7845,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7863840" y="914400"/>
-          <a:ext cx="4853940" cy="2743200"/>
+          <a:ext cx="4853940" cy="3436620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7884,13 +7935,37 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
-            <a:t>- On peux estimer entre 2000 et 3000€ les investissements pour produire nous même de l'aéro (source EPFL)</a:t>
+            <a:t>* On peux estimer entre 2000 et 3000€ les investissements pour produire nous même de l'aéro (source EPFL)</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
-            <a:t>- Faire fabriquer de l'aéro coûte 10k€</a:t>
+            <a:t>* Faire fabriquer de l'aéro coûte 10k€ , le financement suivant est proposé :</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>** Déplacement sur un autre budget : 3k€</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>** Simplifier le kit : gain de 2k€</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>** Trouver un partenaire : 3k€</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>** Le coût restant (2k€) est pris en charge sur le budget Isyrun</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -8257,7 +8332,7 @@
   <dimension ref="A1:X44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8270,12 +8345,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="17"/>
       <c r="C1" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
@@ -8301,14 +8376,14 @@
         <v>6</v>
       </c>
       <c r="L3" s="13"/>
-      <c r="M3" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="15"/>
+      <c r="M3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="18"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
@@ -8323,14 +8398,14 @@
       <c r="I4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="16" t="s">
+      <c r="V4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="W4" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
@@ -8354,15 +8429,15 @@
       <c r="I6" s="1">
         <v>1700</v>
       </c>
-      <c r="V6" s="16" t="s">
+      <c r="V6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="W6" s="16"/>
+      <c r="W6" s="14"/>
       <c r="X6" s="1"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -8382,7 +8457,7 @@
         <v>2000</v>
       </c>
       <c r="V7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W7" s="1">
         <v>500</v>
@@ -8425,14 +8500,14 @@
         <v>18000</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="4">
         <v>2700</v>
@@ -8452,7 +8527,7 @@
         <v>2000</v>
       </c>
       <c r="V10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W10" s="19">
         <v>10000</v>
@@ -8471,7 +8546,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="V11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W11" s="19"/>
       <c r="X11" s="1">
@@ -8500,7 +8575,7 @@
         <v>12000</v>
       </c>
       <c r="V12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W12" s="19"/>
       <c r="X12" s="1">
@@ -8519,7 +8594,7 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1">
         <v>5600</v>
@@ -8538,10 +8613,10 @@
       <c r="I14" s="1">
         <v>3500</v>
       </c>
-      <c r="V14" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="W14" s="17"/>
+      <c r="V14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="W14" s="15"/>
       <c r="X14" s="1"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
@@ -8556,7 +8631,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="V15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W15" s="1"/>
       <c r="X15" s="1">
@@ -8565,7 +8640,7 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="4">
         <v>700</v>
@@ -8577,7 +8652,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="V16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W16" s="1">
         <v>1200</v>
@@ -8595,7 +8670,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="V17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="W17" s="1">
         <v>400</v>
@@ -8606,7 +8681,7 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1">
         <v>10000</v>
@@ -8637,12 +8712,12 @@
       <c r="V19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="W19" s="18"/>
+      <c r="W19" s="16"/>
       <c r="X19" s="1"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F20" s="1">
         <f>$X32</f>
@@ -8661,7 +8736,7 @@
         <v>14336</v>
       </c>
       <c r="V20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W20" s="1">
         <v>1347</v>
@@ -8672,7 +8747,7 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="V21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W21" s="1">
         <v>1056</v>
@@ -8684,7 +8759,7 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="1">
         <f>C14+C12+C9+C6+C7+C18</f>
@@ -8709,14 +8784,14 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="V23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W23" s="18"/>
+        <v>20</v>
+      </c>
+      <c r="W23" s="16"/>
       <c r="X23" s="1"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="V24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W24" s="1">
         <v>700</v>
@@ -8727,7 +8802,7 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="V25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W25" s="1">
         <v>700</v>
@@ -8738,7 +8813,7 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="V26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W26" s="1">
         <v>300</v>
@@ -8749,12 +8824,12 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="V28" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="V29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W29" s="1">
         <v>1100</v>
@@ -8765,14 +8840,14 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="V30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="V32" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W32" s="1">
         <f>SUM(W7:W30)</f>
